--- a/sputnik/personal/cel/cel57.xlsx
+++ b/sputnik/personal/cel/cel57.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Начислен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт общей подъездной дороги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплачен целевой взнос на освещение центральной дороги </t>
   </si>
 </sst>
 </file>
@@ -151,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -185,6 +191,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -495,7 +502,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -571,16 +578,28 @@
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="15">
+        <v>43984</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="11">
+        <v>431</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="15">
+        <v>43984</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="D8" s="11">
+        <v>200</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>

--- a/sputnik/personal/cel/cel57.xlsx
+++ b/sputnik/personal/cel/cel57.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -502,7 +502,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -602,9 +602,15 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="15">
+        <v>43952</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1000</v>
+      </c>
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/cel/cel57.xlsx
+++ b/sputnik/personal/cel/cel57.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t xml:space="preserve">Оплачен целевой взнос на освещение центральной дороги </t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -502,7 +508,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A10" sqref="A10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -614,15 +620,27 @@
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="15">
+        <v>44317</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1000</v>
+      </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="15">
+        <v>44317</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1619</v>
+      </c>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/cel/cel57.xlsx
+++ b/sputnik/personal/cel/cel57.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на приобретение мини трактора</t>
   </si>
 </sst>
 </file>
@@ -505,10 +514,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C11"/>
+      <selection activeCell="A12" sqref="A12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -644,16 +653,40 @@
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="15">
+        <v>44468</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="D12" s="11">
+        <v>1000</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="15">
+        <v>44468</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>44468</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9">
+        <v>1449</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
